--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -450,8 +450,8 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -468,14 +468,14 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41554.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>163.16</v>
+        <v>16.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41554.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.29</v>
+        <v>2.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.09999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.66</v>
+        <v>2.27</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41554.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.15</v>
+        <v>0.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.05</v>
+        <v>4.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41554.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>51.66</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>275.37</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>51.83</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>33.64</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.43</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.23</v>
+        <v>6.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41554.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>73.98</v>
+        <v>7.4</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41554.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>34.16</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>128.85</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>24.97</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.93</v>
+        <v>3.09</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41554.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>23.43</v>
+        <v>2.34</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>33.27</v>
+        <v>3.33</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>120.86</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>4.35</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41554.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>22.18</v>
+        <v>2.22</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>31.65</v>
+        <v>3.16</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>113.99</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>28.82</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>4.12</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41554.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.8</v>
+        <v>2.08</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.37</v>
+        <v>4.54</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.22</v>
+        <v>3.72</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>61.39</v>
+        <v>6.14</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.25</v>
+        <v>2.52</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>241.04</v>
+        <v>24.1</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>45.58</v>
+        <v>4.56</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.75</v>
+        <v>3.07</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.26</v>
+        <v>3.03</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>55.73</v>
+        <v>5.57</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41554.34027777778</v>
+        <v>44803.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.99</v>
-      </c>
       <c r="X2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.99</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41554.34722222222</v>
+        <v>44803.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>1.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.65</v>
+        <v>4.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.24</v>
+        <v>3.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.58</v>
+        <v>1.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.43</v>
+        <v>5.4</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.92</v>
+        <v>2.3</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.82</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.31</v>
+        <v>22.16</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.67</v>
+        <v>4.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.07</v>
+        <v>2.79</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.19</v>
+        <v>2.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.81</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.27</v>
+        <v>4.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41554.35416666666</v>
+        <v>44803.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.32</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="4" t="n">
+      <c r="Q4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41554.36111111111</v>
+        <v>44803.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.37</v>
+        <v>1.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.76</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.17</v>
+        <v>2.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.21</v>
+        <v>2.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.74</v>
+        <v>3.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.87</v>
+        <v>1.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.64</v>
+        <v>1.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.54</v>
+        <v>15.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.18</v>
+        <v>2.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.71</v>
+        <v>0.97</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.48</v>
+        <v>1.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.36</v>
+        <v>1.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.85</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.17</v>
+        <v>1.25</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.12</v>
+        <v>3.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41554.36805555555</v>
+        <v>44803.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.68</v>
+        <v>2.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.49</v>
+        <v>1.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.49</v>
+        <v>5.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.18</v>
+        <v>3.96</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.53</v>
+        <v>1.55</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.61</v>
+        <v>12.77</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.83</v>
+        <v>2.78</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.36</v>
+        <v>1.61</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.52</v>
+        <v>1.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.59</v>
+        <v>2.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.64</v>
+        <v>2.22</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.61</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.53</v>
+        <v>1.86</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.76</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.47</v>
+        <v>1.67</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.4</v>
+        <v>21.37</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.52</v>
+        <v>5.64</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.01</v>
+        <v>3.69</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.52</v>
+        <v>2.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.21</v>
+        <v>5.99</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.44</v>
+        <v>1.48</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.39</v>
+        <v>1.67</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.46</v>
+        <v>1.97</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.62</v>
+        <v>2.36</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.42</v>
+        <v>12.02</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.27</v>
+        <v>1.13</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41554.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41554.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41554.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41554.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41554.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>174.66</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>33.49</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.8</v>
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44803.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44803.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.13</v>
+        <v>41.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.37</v>
+        <v>33.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.4</v>
+        <v>54</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.16</v>
+        <v>221.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.2</v>
+        <v>41.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.75</v>
+        <v>27.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.89</v>
+        <v>48.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44803.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5</v>
+        <v>49.95</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44803.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.91</v>
+        <v>29.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.38</v>
+        <v>23.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.9</v>
+        <v>38.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.29</v>
+        <v>152.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.93</v>
+        <v>29.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.5</v>
+        <v>35.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44803.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44803.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.77</v>
+        <v>18.766</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.27</v>
+        <v>14.266</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.44</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.35</v>
+        <v>41.349</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.75</v>
+        <v>33.749</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.39</v>
+        <v>14.391</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54</v>
+        <v>53.995</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.98</v>
+        <v>22.979</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>10.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.42</v>
+        <v>15.419</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>16.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.78</v>
+        <v>17.778</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.75</v>
+        <v>4.752</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.02</v>
+        <v>15.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.02</v>
+        <v>21.025</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.653</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.216</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.854</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.57</v>
+        <v>221.572</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.97</v>
+        <v>41.971</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.86</v>
+        <v>13.861</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>27.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.329</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.16</v>
+        <v>2.159</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.52</v>
+        <v>27.515</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.04</v>
+        <v>12.039</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.42</v>
+        <v>11.416</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.69</v>
+        <v>13.688</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.07</v>
+        <v>18.072</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.86</v>
+        <v>48.864</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>8.289999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17</v>
+        <v>16.997</v>
       </c>
     </row>
     <row r="4">
@@ -863,7 +863,7 @@
         <v>44803.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.48</v>
+        <v>4.479</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>3.47</v>
@@ -872,10 +872,10 @@
         <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.17</v>
+        <v>10.166</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.07</v>
+        <v>8.067</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>3.25</v>
@@ -884,82 +884,82 @@
         <v>20.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.97</v>
+        <v>2.969</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.753</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.18</v>
+        <v>4.179</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.45</v>
+        <v>4.452</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.176</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.95</v>
+        <v>49.955</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.81</v>
+        <v>10.813</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.45</v>
+        <v>3.451</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.99</v>
+        <v>6.989</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>4.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.657</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.553000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.94</v>
+        <v>2.944</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>3.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.84</v>
+        <v>3.836</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.68</v>
+        <v>4.679</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.6</v>
+        <v>18.597</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.11</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44803.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -464,7 +464,7 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,103 +967,207 @@
         <v>44803.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.2</v>
+        <v>13.195</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.99</v>
+        <v>9.991</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.06</v>
+        <v>29.061</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.75</v>
+        <v>23.751</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.17</v>
+        <v>10.167</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.96</v>
+        <v>38.957</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.13</v>
+        <v>16.134</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.81</v>
+        <v>10.807</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.73</v>
+        <v>11.733</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.43</v>
+        <v>12.433</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.35</v>
+        <v>3.354</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.51</v>
+        <v>10.505</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.79</v>
+        <v>14.789</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.85</v>
+        <v>8.848000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.88</v>
+        <v>152.885</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.34</v>
+        <v>29.337</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.57</v>
+        <v>19.569</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.64</v>
+        <v>10.644</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.526</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.51</v>
+        <v>8.506</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.92</v>
+        <v>7.919</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.363</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.54</v>
+        <v>12.541</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.03</v>
+        <v>35.027</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.72</v>
+        <v>5.718</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.976</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44803.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_122.xlsx
+++ b/DATA_goal/Junction_Flooding_122.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -464,7 +464,7 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -967,207 +967,103 @@
         <v>44803.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.195</v>
+        <v>13.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.991</v>
+        <v>9.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.061</v>
+        <v>29.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.751</v>
+        <v>23.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.167</v>
+        <v>10.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.957</v>
+        <v>38.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.134</v>
+        <v>16.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.552</v>
+        <v>7.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.807</v>
+        <v>10.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.733</v>
+        <v>11.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.433</v>
+        <v>12.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.354</v>
+        <v>3.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.505</v>
+        <v>10.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.789</v>
+        <v>14.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.848000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.552</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.885</v>
+        <v>152.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.337</v>
+        <v>29.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.698</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.569</v>
+        <v>19.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.644</v>
+        <v>10.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.526</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.282</v>
+        <v>19.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.506</v>
+        <v>8.51</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.919</v>
+        <v>7.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.363</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.541</v>
+        <v>12.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.027</v>
+        <v>35.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.718</v>
+        <v>5.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.976</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44803.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>
